--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_17_28.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_17_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1953126.884565731</v>
+        <v>1950583.075058649</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283192</v>
       </c>
     </row>
     <row r="9">
@@ -674,10 +674,10 @@
         <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>263.7138800015061</v>
+        <v>259.632696771575</v>
       </c>
       <c r="W2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>212.5689651179051</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,16 +738,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>10.18456372565635</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>37.34724819842815</v>
       </c>
     </row>
     <row r="4">
@@ -829,16 +829,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>48.2027943444968</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>60.9676003338656</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="E5" t="n">
-        <v>212.5689651179051</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -911,7 +911,7 @@
         <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>59.80127191868297</v>
       </c>
       <c r="W5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>109.3170492634406</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1035,13 +1035,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>242.856330159867</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1057,13 +1057,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>53.36410705248033</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>63.27499344337884</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>411.5491597882495</v>
       </c>
       <c r="H8" t="n">
-        <v>252.2261456741195</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.76608425465085</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4854171348409</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6645630646899</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>197.8244010339995</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1218,19 +1218,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>155.8686312908546</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>133.5587268592485</v>
+        <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614504</v>
+        <v>92.83909691614514</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115229</v>
+        <v>20.2497997611526</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3791152901738</v>
+        <v>134.379115290174</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
@@ -1294,7 +1294,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5869591640956</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6738502503846</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7514885103388</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>20.53952247906176</v>
       </c>
       <c r="V10" t="n">
-        <v>196.779681968372</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>79.05856366754516</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>107.4021082756239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1661,7 +1661,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>43.87236189622147</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1898,10 +1898,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>59.45282559760287</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>148.0280580960833</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520959</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2135,7 +2135,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>59.96838802184363</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>9.146142788178496</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>48.47457675531665</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="27">
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>39.52129633182987</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892427987</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>41.74133133758716</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>45.6605461321756</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389038</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>9.146142788179397</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3247,13 +3247,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365927</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>14.92158678358182</v>
       </c>
     </row>
     <row r="35">
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>104.8913819999782</v>
+        <v>130.1208074460232</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,10 +3436,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3670,10 +3670,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>91.89996056624796</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>6.600826611593575</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>1.508245380440106e-12</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428016</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>152.0575603057045</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4028,7 +4028,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4138,10 +4138,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673032</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>74.53917159609126</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41.00642392276842</v>
+        <v>423.8554133656</v>
       </c>
       <c r="C2" t="n">
-        <v>41.00642392276842</v>
+        <v>423.8554133656</v>
       </c>
       <c r="D2" t="n">
-        <v>41.00642392276842</v>
+        <v>423.8554133656</v>
       </c>
       <c r="E2" t="n">
-        <v>41.00642392276842</v>
+        <v>423.8554133656</v>
       </c>
       <c r="F2" t="n">
-        <v>34.06092317356495</v>
+        <v>416.9099126163965</v>
       </c>
       <c r="G2" t="n">
-        <v>21.09711040012049</v>
+        <v>403.9460998429521</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917573</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515904</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030602</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991317</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358414</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298172</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298172</v>
       </c>
       <c r="V2" t="n">
-        <v>788.4778634388466</v>
+        <v>423.8554133656</v>
       </c>
       <c r="W2" t="n">
-        <v>522.1002068716687</v>
+        <v>423.8554133656</v>
       </c>
       <c r="X2" t="n">
-        <v>255.7225503044907</v>
+        <v>423.8554133656</v>
       </c>
       <c r="Y2" t="n">
-        <v>41.00642392276842</v>
+        <v>423.8554133656</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>650.2565623210693</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C3" t="n">
-        <v>475.8035330399423</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D3" t="n">
-        <v>326.869123378691</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E3" t="n">
-        <v>167.6316683732355</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>117.4455628004802</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957465</v>
+        <v>192.1295835699344</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298713</v>
+        <v>338.8740072302311</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263951</v>
+        <v>529.474696326755</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290001</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557299</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P3" t="n">
-        <v>930.1763583891335</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212815</v>
+        <v>906.2192216098645</v>
       </c>
       <c r="T3" t="n">
-        <v>1036.519636212815</v>
+        <v>709.4101432413021</v>
       </c>
       <c r="U3" t="n">
-        <v>1036.519636212815</v>
+        <v>481.2742972781156</v>
       </c>
       <c r="V3" t="n">
-        <v>1026.232198106091</v>
+        <v>481.2742972781156</v>
       </c>
       <c r="W3" t="n">
-        <v>1026.232198106091</v>
+        <v>227.0369405499139</v>
       </c>
       <c r="X3" t="n">
-        <v>1026.232198106091</v>
+        <v>227.0369405499139</v>
       </c>
       <c r="Y3" t="n">
-        <v>818.4718993411373</v>
+        <v>189.3124474201885</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>85.01124519141231</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="C4" t="n">
-        <v>85.01124519141231</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="D4" t="n">
-        <v>85.01124519141231</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="E4" t="n">
-        <v>85.01124519141231</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="F4" t="n">
-        <v>85.01124519141231</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="G4" t="n">
-        <v>36.32155393434483</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
         <v>126.4133765287947</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512191</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512191</v>
       </c>
       <c r="U4" t="n">
-        <v>1054.855520006025</v>
+        <v>657.6925225705468</v>
       </c>
       <c r="V4" t="n">
-        <v>800.1710318001377</v>
+        <v>403.0080343646599</v>
       </c>
       <c r="W4" t="n">
-        <v>533.7933752329598</v>
+        <v>403.0080343646599</v>
       </c>
       <c r="X4" t="n">
-        <v>305.8038243349424</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="Y4" t="n">
-        <v>85.01124519141231</v>
+        <v>175.0184834666425</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4541,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>522.1002068716687</v>
+        <v>573.7617370571244</v>
       </c>
       <c r="C5" t="n">
-        <v>522.1002068716687</v>
+        <v>573.7617370571244</v>
       </c>
       <c r="D5" t="n">
-        <v>255.7225503044907</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="E5" t="n">
-        <v>41.00642392276842</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="F5" t="n">
-        <v>34.06092317356495</v>
+        <v>300.4385797407429</v>
       </c>
       <c r="G5" t="n">
-        <v>21.09711040012049</v>
+        <v>287.4747669672985</v>
       </c>
       <c r="H5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917585</v>
       </c>
       <c r="K5" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515905</v>
+        <v>294.5174947515903</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030606</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4592,25 +4592,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="V5" t="n">
-        <v>1054.855520006025</v>
+        <v>840.1393936243023</v>
       </c>
       <c r="W5" t="n">
-        <v>788.4778634388466</v>
+        <v>840.1393936243023</v>
       </c>
       <c r="X5" t="n">
-        <v>788.4778634388466</v>
+        <v>840.1393936243023</v>
       </c>
       <c r="Y5" t="n">
-        <v>788.4778634388466</v>
+        <v>573.7617370571244</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4620,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J6" t="n">
-        <v>117.4455628004801</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699343</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L6" t="n">
-        <v>338.874007230231</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267547</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N6" t="n">
-        <v>739.5286634293598</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560896</v>
+        <v>904.2569522304914</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
@@ -4668,28 +4668,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>1036.519636212815</v>
+        <v>906.2192216098645</v>
       </c>
       <c r="T6" t="n">
-        <v>1036.519636212815</v>
+        <v>709.4101432413021</v>
       </c>
       <c r="U6" t="n">
-        <v>1036.519636212815</v>
+        <v>709.4101432413021</v>
       </c>
       <c r="V6" t="n">
-        <v>801.367527981072</v>
+        <v>474.2580350095594</v>
       </c>
       <c r="W6" t="n">
-        <v>547.1301712528705</v>
+        <v>228.9486106056533</v>
       </c>
       <c r="X6" t="n">
-        <v>339.2786710473376</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="Y6" t="n">
-        <v>131.5183722823837</v>
+        <v>21.0971104001205</v>
       </c>
     </row>
     <row r="7">
@@ -4699,46 +4699,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.09711040012049</v>
+        <v>225.116888249305</v>
       </c>
       <c r="C7" t="n">
-        <v>21.09711040012049</v>
+        <v>225.116888249305</v>
       </c>
       <c r="D7" t="n">
-        <v>21.09711040012049</v>
+        <v>75.00024883696932</v>
       </c>
       <c r="E7" t="n">
-        <v>21.09711040012049</v>
+        <v>75.00024883696932</v>
       </c>
       <c r="F7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K7" t="n">
         <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N7" t="n">
         <v>739.1822330227046</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4747,28 +4747,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006025</v>
+        <v>700.593955598722</v>
       </c>
       <c r="U7" t="n">
-        <v>990.9413852147328</v>
+        <v>700.593955598722</v>
       </c>
       <c r="V7" t="n">
-        <v>736.256897008846</v>
+        <v>445.9094673928352</v>
       </c>
       <c r="W7" t="n">
-        <v>469.8792404416679</v>
+        <v>445.9094673928352</v>
       </c>
       <c r="X7" t="n">
-        <v>241.8896895436506</v>
+        <v>445.9094673928352</v>
       </c>
       <c r="Y7" t="n">
-        <v>21.09711040012049</v>
+        <v>225.116888249305</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1876.731217729103</v>
+        <v>1284.347317305397</v>
       </c>
       <c r="C8" t="n">
-        <v>1876.731217729103</v>
+        <v>1284.347317305397</v>
       </c>
       <c r="D8" t="n">
-        <v>1518.465519122353</v>
+        <v>926.0816186986467</v>
       </c>
       <c r="E8" t="n">
-        <v>1132.677266524109</v>
+        <v>540.2933661004025</v>
       </c>
       <c r="F8" t="n">
-        <v>721.6913617345012</v>
+        <v>533.3478653511991</v>
       </c>
       <c r="G8" t="n">
-        <v>305.9851397261684</v>
+        <v>117.6416433428663</v>
       </c>
       <c r="H8" t="n">
-        <v>51.21125520685577</v>
+        <v>117.6416433428663</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685577</v>
+        <v>51.21125520685535</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467175</v>
+        <v>187.3702251467157</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607431</v>
+        <v>442.1757437607392</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045942</v>
+        <v>795.1862829045879</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995229</v>
+        <v>1219.64796299522</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209587</v>
+        <v>1655.591685209575</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940599</v>
+        <v>2053.905718940584</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550202</v>
+        <v>2359.356530550184</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661168</v>
+        <v>2540.564622661149</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342788</v>
+        <v>2560.562760342767</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342788</v>
+        <v>2435.83001576212</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.562760342788</v>
+        <v>2227.077931858393</v>
       </c>
       <c r="U8" t="n">
-        <v>2560.562760342788</v>
+        <v>2227.077931858393</v>
       </c>
       <c r="V8" t="n">
-        <v>2229.499872999218</v>
+        <v>2227.077931858393</v>
       </c>
       <c r="W8" t="n">
-        <v>1876.731217729103</v>
+        <v>1874.309276588279</v>
       </c>
       <c r="X8" t="n">
-        <v>1876.731217729103</v>
+        <v>1674.486649281209</v>
       </c>
       <c r="Y8" t="n">
-        <v>1876.731217729103</v>
+        <v>1284.347317305397</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>929.5097208010832</v>
+        <v>929.5097208010618</v>
       </c>
       <c r="C9" t="n">
-        <v>755.0566915199562</v>
+        <v>755.0566915199348</v>
       </c>
       <c r="D9" t="n">
-        <v>606.1222818587049</v>
+        <v>606.1222818586836</v>
       </c>
       <c r="E9" t="n">
-        <v>446.8848268532494</v>
+        <v>448.6792199487294</v>
       </c>
       <c r="F9" t="n">
-        <v>300.3502688801344</v>
+        <v>302.1446619756144</v>
       </c>
       <c r="G9" t="n">
         <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993889</v>
+        <v>71.66559839993879</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685577</v>
+        <v>51.21125520685535</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637191</v>
+        <v>113.4887579637178</v>
       </c>
       <c r="K9" t="n">
-        <v>298.0857543148187</v>
+        <v>559.9063389572688</v>
       </c>
       <c r="L9" t="n">
-        <v>592.6217377483006</v>
+        <v>854.4423223907486</v>
       </c>
       <c r="M9" t="n">
-        <v>955.6882062226025</v>
+        <v>1217.508790865048</v>
       </c>
       <c r="N9" t="n">
-        <v>1342.772608695172</v>
+        <v>1851.248074049883</v>
       </c>
       <c r="O9" t="n">
-        <v>1674.659418682562</v>
+        <v>2183.134884037271</v>
       </c>
       <c r="P9" t="n">
-        <v>2213.078715030395</v>
+        <v>2430.170242466894</v>
       </c>
       <c r="Q9" t="n">
-        <v>2536.272628442631</v>
+        <v>2545.387641020638</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342788</v>
+        <v>2560.562760342767</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251704</v>
+        <v>2424.826280251682</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685353</v>
+        <v>2230.816477685331</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.726321751582</v>
+        <v>2002.726321751561</v>
       </c>
       <c r="V9" t="n">
-        <v>1767.57421351984</v>
+        <v>1767.574213519818</v>
       </c>
       <c r="W9" t="n">
-        <v>1513.336856791638</v>
+        <v>1513.336856791617</v>
       </c>
       <c r="X9" t="n">
-        <v>1305.485356586105</v>
+        <v>1305.485356586084</v>
       </c>
       <c r="Y9" t="n">
-        <v>1097.725057821151</v>
+        <v>1097.72505782113</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>517.1540250450088</v>
+        <v>367.0373856326726</v>
       </c>
       <c r="C10" t="n">
-        <v>348.2178421171019</v>
+        <v>198.1012027047657</v>
       </c>
       <c r="D10" t="n">
-        <v>198.1012027047661</v>
+        <v>198.1012027047657</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1012027047661</v>
+        <v>198.1012027047657</v>
       </c>
       <c r="F10" t="n">
-        <v>51.21125520685577</v>
+        <v>51.21125520685535</v>
       </c>
       <c r="G10" t="n">
-        <v>51.21125520685577</v>
+        <v>51.21125520685535</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685577</v>
+        <v>51.21125520685535</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685577</v>
+        <v>51.21125520685535</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380173</v>
+        <v>76.63468308380077</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676573</v>
+        <v>248.2500215676554</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368927</v>
+        <v>523.3850043368898</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904045</v>
+        <v>823.8653899904004</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101614</v>
+        <v>1122.635640101608</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931092</v>
+        <v>1382.582027931086</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616501</v>
+        <v>1581.490387616494</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477365</v>
+        <v>1635.769145477357</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477365</v>
+        <v>1533.156055412614</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.769145477365</v>
+        <v>1336.515802634447</v>
       </c>
       <c r="T10" t="n">
-        <v>1635.769145477365</v>
+        <v>1113.534501108853</v>
       </c>
       <c r="U10" t="n">
-        <v>1635.769145477365</v>
+        <v>1092.78750870576</v>
       </c>
       <c r="V10" t="n">
-        <v>1437.001789953757</v>
+        <v>838.1030204998729</v>
       </c>
       <c r="W10" t="n">
-        <v>1147.584619916796</v>
+        <v>548.6858504629123</v>
       </c>
       <c r="X10" t="n">
-        <v>919.5950690187786</v>
+        <v>548.6858504629123</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.8024898752485</v>
+        <v>548.6858504629123</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5033,46 +5033,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>545.3854261579756</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>397.4723325755825</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5258,16 +5258,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
@@ -5276,19 +5276,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,28 +5352,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>697.5276345711974</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>697.5276345711974</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487566</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510507</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854705</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648818</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1099.968678544967</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>879.1760994014371</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>762.5477693179074</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>593.6115863900005</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>443.4949469776648</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>295.5818533952717</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>762.5477693179074</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5732,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5753,16 +5753,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,43 +5884,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876679</v>
+        <v>695.5020655703096</v>
       </c>
       <c r="C22" t="n">
-        <v>411.963121559761</v>
+        <v>695.5020655703096</v>
       </c>
       <c r="D22" t="n">
-        <v>411.963121559761</v>
+        <v>545.3854261579738</v>
       </c>
       <c r="E22" t="n">
-        <v>411.963121559761</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>411.963121559761</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>244.767022274641</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>103.055191116839</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782949</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038335</v>
+        <v>435.7419440038327</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797736</v>
+        <v>826.1405381797728</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O22" t="n">
         <v>2035.089393279801</v>
@@ -5929,31 +5929,31 @@
         <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602303</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396416</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359455</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614378</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179076</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="23">
@@ -5990,19 +5990,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6069,25 +6069,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>451.6888124356582</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6181,16 +6181,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="26">
@@ -6206,13 +6206,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6224,10 +6224,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,49 +6358,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400694</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121625</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121625</v>
+        <v>363.7369613277341</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121625</v>
+        <v>215.823867745341</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121625</v>
+        <v>215.823867745341</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270425</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782942</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038328</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797729</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.963083580259</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832661</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487565</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510506</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854704</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648817</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W28" t="n">
         <v>1144.284195611857</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138393</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703091</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="29">
@@ -6458,22 +6458,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,25 +6537,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239596</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>924.8344286397182</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M30" t="n">
-        <v>1522.21291626627</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N30" t="n">
-        <v>1522.21291626627</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406111</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282753</v>
+        <v>363.7369613277345</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="32">
@@ -6680,13 +6680,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>119.290296770379</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597619</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D34" t="n">
-        <v>411.9631215597619</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E34" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>244.7670222746419</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138395</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="35">
@@ -6932,25 +6932,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7072,19 +7072,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>407.9027098310023</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="D37" t="n">
-        <v>407.9027098310023</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7154,10 +7154,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7172,19 +7172,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7257,19 +7257,19 @@
         <v>95.58405025273903</v>
       </c>
       <c r="L39" t="n">
-        <v>590.9096564684977</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M39" t="n">
-        <v>1188.28814409505</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N39" t="n">
-        <v>1815.886107649656</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>707.672526468518</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
         <v>93.81666304797187</v>
@@ -7342,40 +7342,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T40" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U40" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V40" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W40" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X40" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y40" t="n">
-        <v>889.3209912987577</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.167399417937</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N42" t="n">
-        <v>1963.765362972544</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121628</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270427</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7609,10 +7609,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>990.6907003535711</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,16 +7722,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
         <v>680.0291294438176</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7819,37 +7819,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>99.37288961069063</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.32166909127237</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8152,7 +8152,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.006563314041</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>99.37288961069065</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8307,10 +8307,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>92.05878169167806</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>5.26288739959432</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,19 +8541,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.1463441538056</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>294.3272100183919</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>36.31458639917175</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>66.36248435538609</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856724</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>181.8372934928157</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>85.96822242532838</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>86.46557462472555</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>72.11969353038704</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24370,16 +24370,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>96.94647126761458</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>126.002841960439</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194402</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>125.5054897610407</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>100.7734165143936</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25081,7 +25081,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>72.11969353038614</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>203.663066568513</v>
       </c>
     </row>
     <row r="35">
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>62.35543909864963</v>
+        <v>37.12601365260466</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25324,10 +25324,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25558,10 +25558,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>125.5054897610403</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>211.9838267405012</v>
       </c>
     </row>
     <row r="41">
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194373</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>73.65209508333268</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,10 +26026,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26077,13 +26077,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194098</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>211.9838267404998</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>882555.041265856</v>
+        <v>882555.0412658559</v>
       </c>
     </row>
     <row r="5">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>857872.9770797158</v>
+        <v>857872.9770797159</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>857872.9770797158</v>
+        <v>857872.9770797159</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>857872.9770797159</v>
+        <v>857872.9770797158</v>
       </c>
     </row>
     <row r="13">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>857872.9770797159</v>
+        <v>857872.9770797158</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049983</v>
       </c>
       <c r="C2" t="n">
         <v>574729.2389049986</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="E2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830049</v>
       </c>
       <c r="F2" t="n">
         <v>565002.6197830045</v>
       </c>
       <c r="G2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="H2" t="n">
         <v>565002.6197830044</v>
       </c>
       <c r="I2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="J2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="K2" t="n">
+        <v>565002.6197830047</v>
+      </c>
+      <c r="L2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="M2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="N2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="L2" t="n">
-        <v>565002.6197830043</v>
-      </c>
-      <c r="M2" t="n">
-        <v>565002.6197830043</v>
-      </c>
-      <c r="N2" t="n">
-        <v>565002.6197830044</v>
-      </c>
       <c r="O2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="P2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830045</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580804</v>
+        <v>390680.007658075</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606919</v>
+        <v>507909.2320606973</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>68999.15441911413</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101799</v>
+        <v>95270.23779101663</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954687</v>
+        <v>132717.9756954701</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,10 +26421,10 @@
         <v>251227.3656190198</v>
       </c>
       <c r="D4" t="n">
-        <v>140465.2517501113</v>
+        <v>140465.2517501128</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="F4" t="n">
         <v>11167.03225179351</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567906</v>
+        <v>92902.86757567865</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-419633.9105094805</v>
+        <v>-419633.9105094809</v>
       </c>
       <c r="C6" t="n">
-        <v>260454.0700817127</v>
+        <v>260454.0700817126</v>
       </c>
       <c r="D6" t="n">
-        <v>-49318.88807887243</v>
+        <v>-49318.88807886766</v>
       </c>
       <c r="E6" t="n">
-        <v>-55196.17435338804</v>
+        <v>-55230.91227882875</v>
       </c>
       <c r="F6" t="n">
-        <v>452713.0577073038</v>
+        <v>452678.3197818684</v>
       </c>
       <c r="G6" t="n">
-        <v>452713.0577073037</v>
+        <v>452678.3197818681</v>
       </c>
       <c r="H6" t="n">
-        <v>452713.0577073037</v>
+        <v>452678.319781868</v>
       </c>
       <c r="I6" t="n">
-        <v>452713.0577073036</v>
+        <v>452678.3197818681</v>
       </c>
       <c r="J6" t="n">
-        <v>383713.9032881897</v>
+        <v>383679.1653627541</v>
       </c>
       <c r="K6" t="n">
-        <v>452713.0577073038</v>
+        <v>452678.3197818684</v>
       </c>
       <c r="L6" t="n">
-        <v>357442.8199162856</v>
+        <v>357408.0819908516</v>
       </c>
       <c r="M6" t="n">
-        <v>319995.0820118349</v>
+        <v>319960.3440863982</v>
       </c>
       <c r="N6" t="n">
-        <v>452713.0577073037</v>
+        <v>452678.3197818681</v>
       </c>
       <c r="O6" t="n">
-        <v>452713.0577073036</v>
+        <v>452678.3197818683</v>
       </c>
       <c r="P6" t="n">
-        <v>452713.057707304</v>
+        <v>452678.3197818681</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>933.702459562784</v>
+        <v>933.7024595627797</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856971</v>
+        <v>640.1406900856919</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933058</v>
+        <v>319.6474457933014</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788897</v>
+        <v>434.2730407788943</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.426810084191</v>
+        <v>376.4268100841856</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139513</v>
+        <v>532.5675980139569</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015064</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.426810084191</v>
+        <v>376.4268100841856</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139513</v>
+        <v>532.5675980139566</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.426810084191</v>
+        <v>376.4268100841856</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139513</v>
+        <v>532.5675980139569</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>50.4797526277618</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>64.03837846862876</v>
+        <v>68.11956169855989</v>
       </c>
       <c r="W2" t="n">
-        <v>85.52708871590687</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>106.0172206769629</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>173.6689735381485</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27458,25 +27458,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>222.6160234237689</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>168.3354475788762</v>
       </c>
     </row>
     <row r="4">
@@ -27549,16 +27549,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>118.6808726940498</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>225.2910301688119</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>22.80911833508486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>119.0199616619744</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>90.96916161917682</v>
+        <v>90.96916161917676</v>
       </c>
       <c r="E5" t="n">
-        <v>169.3614049543567</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,7 +27631,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>314.193632629268</v>
+        <v>50.4797526277618</v>
       </c>
       <c r="I5" t="n">
         <v>115.3066195468971</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>212.2897156032232</v>
@@ -27673,16 +27673,16 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>267.9509865514519</v>
       </c>
       <c r="W5" t="n">
-        <v>85.52708871590687</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="6">
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>57.21613438642676</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27710,10 +27710,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.8544875035546</v>
@@ -27755,13 +27755,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>8.838653001052649</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27777,13 +27777,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>92.05694097045091</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27795,7 +27795,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>222.9836370592986</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>22.80911833508486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>48.80732854618086</v>
+        <v>301.0334742203005</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465017</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348405</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896856</v>
+        <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>171.9066996444695</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27938,13 +27938,13 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1.776449164546335</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.776449164525161</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -28014,7 +28014,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28026,10 +28026,10 @@
         <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590395</v>
+        <v>147.2573199590396</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430994</v>
+        <v>104.8162497430997</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640952</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503844</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103387</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271897703044</v>
+        <v>265.6876672912426</v>
       </c>
       <c r="V10" t="n">
-        <v>55.35796135545598</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29341,7 +29341,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="27">
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30414,7 +30414,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>-3.220922302743453e-13</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30627,7 +30627,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.33561557719332e-13</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -30891,7 +30891,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31075,7 +31075,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31124,16 +31124,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31142,25 +31142,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,16 +31200,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31221,25 +31221,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,31 +31276,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31312,7 +31312,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31361,16 +31361,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31379,25 +31379,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,16 +31437,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31458,25 +31458,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885561</v>
+        <v>3.753577726885544</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546676</v>
+        <v>38.44132789546659</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157557</v>
+        <v>144.7098053157551</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972537</v>
+        <v>318.5802175972522</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763196</v>
+        <v>477.4691627763174</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354937</v>
+        <v>592.3427171354909</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359948</v>
+        <v>659.0954050359917</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525084</v>
+        <v>669.7602577525054</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307901</v>
+        <v>632.4356192307872</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983027</v>
+        <v>539.7691690983003</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542134</v>
+        <v>405.3441667542115</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864753</v>
+        <v>235.7856768864742</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140481</v>
+        <v>85.53465245140441</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944155</v>
+        <v>16.43128649944148</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508448</v>
+        <v>0.3002862181508434</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436932</v>
+        <v>2.008341139436923</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035142</v>
+        <v>19.39634732035133</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026279</v>
+        <v>69.14683309026248</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079428</v>
+        <v>189.7441951079419</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502172</v>
+        <v>324.3030514502157</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571286</v>
+        <v>436.0654741571266</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617173</v>
+        <v>508.8678404617149</v>
       </c>
       <c r="N9" t="n">
-        <v>522.336058015222</v>
+        <v>522.3360580152196</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519089</v>
+        <v>477.8354464519067</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947594</v>
+        <v>383.5050724947576</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463704</v>
+        <v>256.3629847463693</v>
       </c>
       <c r="R9" t="n">
-        <v>124.693320920479</v>
+        <v>124.6933209204784</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366404</v>
+        <v>37.30405581366387</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133945</v>
+        <v>8.095024154133908</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419035</v>
+        <v>0.1321277065419028</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752561</v>
+        <v>1.683725746752553</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840006</v>
+        <v>14.96985254839999</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415886</v>
+        <v>50.63422518415862</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954061</v>
+        <v>119.0394102954055</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772521</v>
+        <v>195.6183185772512</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490126</v>
+        <v>250.3240987490115</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023128</v>
+        <v>263.9316641023116</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462353</v>
+        <v>257.6559590462341</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046257</v>
+        <v>237.9869810046247</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708733</v>
+        <v>203.6389757708724</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939804</v>
+        <v>140.9890713939797</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307424</v>
+        <v>75.70643221307388</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658781</v>
+        <v>29.34274778658767</v>
       </c>
       <c r="T10" t="n">
-        <v>7.19410091794276</v>
+        <v>7.194100917942726</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650344</v>
+        <v>0.09183958618650302</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>316.0872899694776</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,31 +32072,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>512.9101366533182</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
@@ -32309,16 +32309,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>303.4024373464761</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,13 +32327,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32546,10 +32546,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32558,13 +32558,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>560.1612034965808</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32573,7 +32573,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32789,7 +32789,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>183.7183104822601</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319853</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33032,22 +33032,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>171.5999003578897</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,28 +33257,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>483.3274636075166</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>164.2853229338207</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>691.6611968462892</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,19 +33734,19 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33755,10 +33755,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33977,7 +33977,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>162.5000833330458</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,13 +33986,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>459.3154675919703</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34129,7 +34129,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34208,13 +34208,13 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>217.8799919951683</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>309.9424824173362</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34366,7 +34366,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34442,19 +34442,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>97.3216690912724</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763047</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34796,7 +34796,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.9385470877688</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34872,10 +34872,10 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.2029511204529</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763047</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35027,13 +35027,13 @@
         <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>171.6550983098281</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="P6" t="n">
-        <v>118.240000033741</v>
+        <v>123.5028874333353</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35112,7 +35112,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705674</v>
+        <v>137.5343130705659</v>
       </c>
       <c r="K8" t="n">
-        <v>257.379311731339</v>
+        <v>257.3793117313368</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655064</v>
+        <v>356.5763021655037</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087221</v>
+        <v>428.749171808719</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559175</v>
+        <v>440.3471941559145</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091033</v>
+        <v>402.3374078091005</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430331</v>
+        <v>308.5361733430307</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797639</v>
+        <v>183.038476879762</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234321</v>
+        <v>20.20013907234213</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127608</v>
+        <v>62.9065684412752</v>
       </c>
       <c r="K9" t="n">
-        <v>186.4616124758582</v>
+        <v>450.9268494884353</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772544</v>
+        <v>297.5110943772524</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396989</v>
+        <v>366.7338065396966</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318887</v>
+        <v>640.1406900856919</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074645</v>
+        <v>335.2392020074623</v>
       </c>
       <c r="P9" t="n">
-        <v>543.8578750988211</v>
+        <v>249.5306650804274</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.458498396198</v>
+        <v>116.3812106603478</v>
       </c>
       <c r="R9" t="n">
-        <v>24.53548676783589</v>
+        <v>15.32840335568624</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.6802301787333</v>
+        <v>25.68023017873274</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513692</v>
+        <v>173.3488267513683</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093288</v>
+        <v>277.9141240093276</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641534</v>
+        <v>303.5155410641522</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254639</v>
+        <v>301.7881314254627</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186654</v>
+        <v>262.5721089186643</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357668</v>
+        <v>200.9175350357659</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228601</v>
+        <v>54.82702814228536</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>173.4910455250332</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>370.3138922088737</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>37.00975247789211</v>
@@ -35823,7 +35823,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998975</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>165.5609983721171</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,13 +35975,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36194,10 +36194,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36206,13 +36206,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>418.0271695745625</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36221,7 +36221,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295251</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096333</v>
       </c>
       <c r="L22" t="n">
         <v>394.3420143191314</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36680,22 +36680,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>29.46586643587134</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295185</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36771,7 +36771,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998967</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36905,28 +36905,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>340.7312191630721</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>560.3194847629559</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37382,19 +37382,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>200.7949786802851</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37403,10 +37403,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37625,7 +37625,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>23.94570355317166</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,13 +37634,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>316.7192231475259</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37710,7 +37710,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899057</v>
       </c>
       <c r="O40" t="n">
         <v>373.2618997060454</v>
@@ -37777,7 +37777,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>79.32561221529411</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>167.3462379728918</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38090,19 +38090,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38187,7 +38187,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060466</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
